--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_07-08.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_07-08.xlsx
@@ -60,7 +60,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_12fce")] It all makes sense now. These mysterious Sarkaz rituals really do have a different effect on the Sarkaz…!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_12fce")] It all makes sense now. These mysterious Sarkaz rituals really do have a different effect on the Sarkaz...!
 </t>
   </si>
   <si>
